--- a/museum/muselist.xlsx
+++ b/museum/muselist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\大三下\软件工程\课设\子系统\museum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\大三下\软件工程\课设\museum\MusemData_Collection_System\museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CCD52-77D8-43B2-95A1-00DA60782DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB51FF-03DC-4CA8-A954-D33A71DDFC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1635" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>https://baike.baidu.com/item/%E5%90%90%E9%B2%81%E7%95%AA%E5%8D%9A%E7%89%A9%E9%A6%86/4800605?fr=aladdin</t>
   </si>
   <si>
-    <t>新疆维吾尔自治区博物馆</t>
-  </si>
-  <si>
     <t>https://baike.baidu.com/item/%E6%96%B0%E7%96%86%E7%BB%B4%E5%90%BE%E5%B0%94%E8%87%AA%E6%B2%BB%E5%8C%BA%E5%8D%9A%E7%89%A9%E9%A6%86/1627548?fr=aladdin</t>
   </si>
   <si>
@@ -1578,6 +1575,10 @@
   </si>
   <si>
     <t>中国（海南）南海博物馆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>维吾尔自治区博物馆</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2015,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2350,7 +2351,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>68</v>
@@ -2420,7 +2421,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
@@ -2444,11 +2445,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>516</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2456,13 +2457,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2470,13 +2471,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2484,11 +2485,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,13 +2497,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,13 +2511,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,13 +2525,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2538,13 +2539,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,13 +2553,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2566,11 +2567,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2578,13 +2579,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2593,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
         <v>115</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,13 +2607,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,13 +2621,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
         <v>121</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>122</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2635,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
         <v>124</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>125</v>
-      </c>
-      <c r="D45" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,13 +2649,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
         <v>127</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,13 +2663,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
         <v>130</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2677,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
         <v>133</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2691,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>137</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,13 +2705,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>140</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2718,13 +2719,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>143</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,13 +2733,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
         <v>145</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>146</v>
-      </c>
-      <c r="D52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2747,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
         <v>148</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>149</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,13 +2761,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
         <v>151</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>152</v>
-      </c>
-      <c r="D54" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,13 +2775,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>155</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,10 +2789,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2799,13 +2800,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="C57" t="s">
-        <v>159</v>
-      </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2813,13 +2814,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
         <v>160</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>161</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2827,13 +2828,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
         <v>163</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2841,13 +2842,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>167</v>
-      </c>
-      <c r="D60" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2855,13 +2856,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
         <v>169</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>170</v>
-      </c>
-      <c r="D61" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,13 +2870,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
         <v>172</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>173</v>
-      </c>
-      <c r="D62" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2883,13 +2884,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
         <v>175</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>176</v>
-      </c>
-      <c r="D63" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,13 +2898,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
         <v>178</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>179</v>
-      </c>
-      <c r="D64" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2911,13 +2912,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
         <v>181</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>182</v>
-      </c>
-      <c r="D65" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,13 +2926,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
         <v>184</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>185</v>
-      </c>
-      <c r="D66" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2939,13 +2940,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
         <v>187</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>188</v>
-      </c>
-      <c r="D67" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2953,13 +2954,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
         <v>190</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>191</v>
-      </c>
-      <c r="D68" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,13 +2968,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
         <v>193</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>194</v>
-      </c>
-      <c r="D69" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,13 +2982,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
         <v>196</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>197</v>
-      </c>
-      <c r="D70" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,13 +2996,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
         <v>199</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>200</v>
-      </c>
-      <c r="D71" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,13 +3010,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
         <v>202</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>203</v>
-      </c>
-      <c r="D72" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3023,13 +3024,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
         <v>205</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>206</v>
-      </c>
-      <c r="D73" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,13 +3038,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
         <v>208</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>209</v>
-      </c>
-      <c r="D74" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3051,13 +3052,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
         <v>211</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3065,13 +3066,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
         <v>214</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3079,13 +3080,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
         <v>217</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>218</v>
-      </c>
-      <c r="D77" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3093,10 +3094,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3104,13 +3105,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
         <v>222</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>223</v>
-      </c>
-      <c r="D79" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3118,13 +3119,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
         <v>225</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3132,13 +3133,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
         <v>228</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3146,13 +3147,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3160,13 +3161,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,13 +3175,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,11 +3189,11 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3200,13 +3201,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,11 +3215,11 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3226,13 +3227,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3240,13 +3241,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="D89" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3254,13 +3255,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="D90" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,13 +3269,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="D91" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3282,13 +3283,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3296,13 +3297,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3310,13 +3311,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3324,13 +3325,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,13 +3339,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="D96" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,13 +3353,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,11 +3367,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,13 +3379,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3392,13 +3393,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3406,13 +3407,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="D101" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,13 +3421,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="D102" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,13 +3435,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="D103" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3448,13 +3449,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="D104" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,13 +3463,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="D105" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3476,13 +3477,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="D106" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3490,13 +3491,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="D107" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3504,13 +3505,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="D108" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3518,11 +3519,11 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3530,11 +3531,11 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3542,13 +3543,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="D111" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3556,13 +3557,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3570,13 +3571,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="D113" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3584,13 +3585,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="D114" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,13 +3599,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="D115" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,13 +3613,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3626,13 +3627,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="D117" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3640,11 +3641,11 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3652,13 +3653,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="D119" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3666,13 +3667,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>338</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="D120" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3680,13 +3681,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>341</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="D121" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3694,13 +3695,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" t="s">
         <v>345</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3708,13 +3709,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" t="s">
         <v>348</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3722,13 +3723,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" t="s">
         <v>351</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3736,13 +3737,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" t="s">
         <v>354</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3750,13 +3751,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>356</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="D126" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3764,13 +3765,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" t="s">
         <v>360</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3778,13 +3779,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="D128" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,13 +3793,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="D129" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3806,13 +3807,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>368</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="D130" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3820,10 +3821,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>371</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,10 +3832,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3842,10 +3843,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3853,10 +3854,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3864,10 +3865,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,10 +3876,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>381</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,10 +3887,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3897,10 +3898,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>385</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,10 +3909,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,10 +3920,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3930,10 +3931,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>391</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,10 +3942,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -3952,10 +3953,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>395</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,10 +3964,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>397</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3974,10 +3975,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>399</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3985,10 +3986,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>401</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3996,10 +3997,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>403</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4007,10 +4008,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>405</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4018,10 +4019,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>407</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4029,10 +4030,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>409</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4040,10 +4041,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4051,10 +4052,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4062,10 +4063,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4073,10 +4074,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4084,10 +4085,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>418</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4095,10 +4096,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>420</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,10 +4107,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4117,10 +4118,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>423</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4128,10 +4129,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>425</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4139,10 +4140,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4150,10 +4151,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>428</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4161,10 +4162,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>430</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4172,10 +4173,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>432</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4183,10 +4184,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>434</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4194,7 +4195,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +4203,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>437</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,7 +4214,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,10 +4222,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>439</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,7 +4233,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4240,10 +4241,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4251,10 +4252,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>444</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4262,10 +4263,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>446</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4273,10 +4274,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>448</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4284,10 +4285,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>450</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4295,10 +4296,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4306,10 +4307,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>454</v>
+      </c>
+      <c r="C176" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4317,10 +4318,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,10 +4329,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>457</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4339,10 +4340,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>459</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>460</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4350,10 +4351,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>461</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>462</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4361,10 +4362,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>463</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4372,7 +4373,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4380,7 +4381,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,10 +4389,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>467</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4399,10 +4400,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>469</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4410,7 +4411,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4418,10 +4419,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>472</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -4429,10 +4430,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>474</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4440,10 +4441,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>476</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4451,10 +4452,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>478</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4462,10 +4463,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>480</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,10 +4474,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>482</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,10 +4485,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>484</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4495,10 +4496,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>486</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4506,10 +4507,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>488</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4517,7 +4518,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4525,7 +4526,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,10 +4534,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>493</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4544,10 +4545,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>494</v>
+      </c>
+      <c r="C199" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4555,10 +4556,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>496</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4566,10 +4567,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>498</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4577,10 +4578,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>500</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4588,10 +4589,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>502</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4599,10 +4600,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>504</v>
+      </c>
+      <c r="C204" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4610,10 +4611,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>506</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
